--- a/Översikt ÄLVDALEN.xlsx
+++ b/Översikt ÄLVDALEN.xlsx
@@ -575,7 +575,7 @@
         <v>45614</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>46058.46145833333</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         <v>45937.84384259259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>45901</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>45524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45833</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>45825</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>45700</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>46048.60064814815</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>45803</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>45926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45945.41504629629</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45502</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>45901</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>45278</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>45960.64217592592</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45810</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>45772.53324074074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>45044</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>45978.6218287037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>45840</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>45104.38712962963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>45638.62018518519</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>46049.49635416667</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44532</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>45945.40607638889</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>45988.46520833333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>45118</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>45919.42304398148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>45925.42225694445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>45901</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45973.54251157407</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>46036.55042824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45694</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>45159</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>45938.48887731481</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45979.43158564815</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>45110</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>45929.56971064815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>45821.65135416666</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>45868</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45918</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>45891.43167824074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>45937.6440162037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>45912</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>45835</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>44406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45110.64706018518</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>45834.34892361111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>45407</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>45891</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45895</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45973.53064814815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>46003.64638888889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>45848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>45162</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>45902.49891203704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44830</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>45841.50515046297</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>45748.54524305555</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>44519</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>45902.50262731482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45917.96543981481</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>45966.68414351852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45943</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45909.56883101852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44543</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>45792</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>45947</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45415</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>45804.32020833333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>45925.4190625</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>45362</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>45393</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45522</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>44413</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44472</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>45210</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>44473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>45902.49466435185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>44817</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>45834</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>45834.57958333333</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>45841.64807870371</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45842.46769675926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>45895</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>45987.48891203704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>45770.47667824074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>45988</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>45769.51054398148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>45448</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>45162</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>45902.58693287037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>46036.50204861111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>46002.34777777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>46008.45831018518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45755.33045138889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45432.31541666666</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>45462.39879629629</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>45210</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>45365</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>45800.31733796297</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>45910.76924768519</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>45537.50400462963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>45952.43372685185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>45547.5541087963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45968.59255787037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>45630</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>46002.34267361111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>46002.34027777778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>46010.63902777778</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>45511.67277777778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>45511.67440972223</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>45786.34568287037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>45343.57924768519</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>45145</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45804.33314814815</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>45810.55134259259</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>45426</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>45817.49630787037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44830</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>45937.86962962963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>45841.65282407407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45188.45712962963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>45502.37813657407</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>45968.58936342593</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>45992.33722222222</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>45569.65748842592</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>45120</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13851,7 +13851,7 @@
         <v>44830</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44461</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44525</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44435</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44532</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>44365</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44284</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44419.31553240741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45511.67366898148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>45817.50025462963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44473</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>45833.3283912037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>45638.42091435185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>45182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45895</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45968.59744212963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>45968.59571759259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>45098.70354166667</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>45985.64229166666</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45993.45759259259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44874</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45496.55789351852</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>44370</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44865</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>44365.90097222223</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>44516</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>44327.86341435185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44379</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44865</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44326.61526620371</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44340</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         <v>44869</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44496.40606481482</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44349</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45496.26998842593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>45078</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>45432.30798611111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>45817.49222222222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45817.48814814815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>45600</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>45903.43458333334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>45902.45748842593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>45502.85956018518</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>44391</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>45938.31905092593</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>45853</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44881</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>45575</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         <v>45989.4540625</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45993</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44260</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>45575</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>45664</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>45603.36233796296</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>45511.66325231481</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45786.34402777778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44309</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44662.62577546296</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44368.58009259259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44810.58001157407</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44754.35296296296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44292</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44463.48194444444</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44471</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44419.31731481481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44281.55321759259</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44651</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44349</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44340.86222222223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>44755</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>44421</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44519</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44411</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44477</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44754.36063657407</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>44552</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>44327.86443287037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44327.86510416667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44844</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44327</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44873.34854166667</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>44421</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44817.69123842593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44844.47071759259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44504.06847222222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>44846</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>44278.6621875</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>44459</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>44309.50952546296</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>44467.47215277778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44538</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>44365</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         <v>44357</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>44349.38230324074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>44865</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>44434.45565972223</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>44393</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44462.68480324074</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>44459</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>44452</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>44697</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>44697</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>44378</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>44477.48498842592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>44446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>44363</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>44461.46195601852</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>44869</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>44393</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44494.3159375</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>44501</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>44705</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -22558,7 +22558,7 @@
         <v>44314</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>44419</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -22677,7 +22677,7 @@
         <v>44484</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -22734,7 +22734,7 @@
         <v>44522.47883101852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44477.40155092593</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44732.6975</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44393.6384837963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>44309</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>44363</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44281</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>44350.38857638889</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>44238</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>44539</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -23319,7 +23319,7 @@
         <v>44536</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44399</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44363</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44607</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44680</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44882.54866898148</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -23681,7 +23681,7 @@
         <v>44369.82663194444</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44355.35329861111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44636</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44816</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44547</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>44378</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44365.89862268518</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>44322.6378125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>45456.40030092592</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>45660</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>45534.59008101852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44476</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>45054.61501157407</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>45097</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>44558</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>45307.5731712963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>44526.57060185185</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -24700,7 +24700,7 @@
         <v>45210</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -24757,7 +24757,7 @@
         <v>45307.59216435185</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         <v>44526</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -24876,7 +24876,7 @@
         <v>45246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -24933,7 +24933,7 @@
         <v>45247</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -24990,7 +24990,7 @@
         <v>45357.96072916667</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>45630.4566550926</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>45512.56623842593</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>45645.50170138889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>45491.62447916667</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>45588.39283564815</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>45191.44871527778</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>45477.73017361111</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>45477.74017361111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44568</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>45608.53949074074</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44529</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>45638.45292824074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>45210</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>45488</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>45593.37266203704</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>45887.39354166666</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         <v>45187</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -26041,7 +26041,7 @@
         <v>45770</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -26103,7 +26103,7 @@
         <v>45799.56943287037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>45798.616875</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>45800</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -26284,7 +26284,7 @@
         <v>45586.50946759259</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>45545.61171296296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>45335.69585648148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>45253</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>45145.57525462963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>44755</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>45572</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>45587.6328587963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45693.55244212963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>45805.61885416666</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>44865.46136574074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45804.49605324074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>45804.4396412037</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>45810.45271990741</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44839.39157407408</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>45707.64342592593</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         <v>45568.56023148148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>45674.62240740741</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -27350,7 +27350,7 @@
         <v>45548.42846064815</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         <v>45888</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>45891.63013888889</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -27526,7 +27526,7 @@
         <v>45811.66903935185</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>44284</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>45589.34738425926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>45322</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>45322</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>45322</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -27868,7 +27868,7 @@
         <v>45810</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -27925,7 +27925,7 @@
         <v>45491.63538194444</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>45891.48471064815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>45812.43825231482</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>45812.47674768518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44904</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>45891</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>45679.42957175926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -28334,7 +28334,7 @@
         <v>45894.46609953704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>45350.6433912037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>45181.53310185186</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>45817.48231481481</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>45322</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         <v>45897.67196759259</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>45815.49082175926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>45015</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>45901.6049537037</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>45901.61150462963</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>45597.55230324074</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>45898.46256944445</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45820.56359953704</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>45820.57053240741</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -29157,7 +29157,7 @@
         <v>45335</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -29214,7 +29214,7 @@
         <v>45820.56780092593</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>44873.34417824074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45911.66576388889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45911.64846064815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45911.56475694444</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -29509,7 +29509,7 @@
         <v>45910.7628125</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>45911.65087962963</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>45826.56265046296</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>45915</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>45826.56873842593</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44820.36509259259</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>45830.82903935185</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>45566.37706018519</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -29970,7 +29970,7 @@
         <v>45919.51228009259</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -30032,7 +30032,7 @@
         <v>44505.56753472222</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -30094,7 +30094,7 @@
         <v>45299.39997685186</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -30151,7 +30151,7 @@
         <v>44473</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -30228,7 +30228,7 @@
         <v>45919.48063657407</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>45310.63633101852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45310.65099537037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -30404,7 +30404,7 @@
         <v>45175</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -30461,7 +30461,7 @@
         <v>45153.47732638889</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -30518,7 +30518,7 @@
         <v>45665.44936342593</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -30575,7 +30575,7 @@
         <v>44888.40673611111</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>45173</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -30694,7 +30694,7 @@
         <v>45925.56752314815</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>45201.60141203704</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44349.39537037037</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>45646.61907407407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -30932,7 +30932,7 @@
         <v>45929.57569444444</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>45630.62005787037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -31056,7 +31056,7 @@
         <v>45926.37971064815</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -31118,7 +31118,7 @@
         <v>45835.44703703704</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>45336</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -31232,7 +31232,7 @@
         <v>45299</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -31289,7 +31289,7 @@
         <v>45929.36357638889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>45233.50606481481</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>45310</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>45645.50583333334</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>45834.54943287037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>45502.33021990741</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>45586.50578703704</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -31703,7 +31703,7 @@
         <v>44370.63354166667</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>45931.6125462963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>45838.69678240741</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>45931.59818287037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45933.47471064814</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45964</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>45700.47643518518</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>45933.37452546296</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>45722.54625</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>45722.56425925926</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -32303,7 +32303,7 @@
         <v>45932.64740740741</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -32360,7 +32360,7 @@
         <v>45187</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -32417,7 +32417,7 @@
         <v>45560.39483796297</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>44911</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>45887</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>45559.47958333333</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>45512.56725694444</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -32712,7 +32712,7 @@
         <v>45512</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>45159.5371875</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>45944.44439814815</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -32893,7 +32893,7 @@
         <v>45846</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>45274.38255787037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>45484</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>45477.71173611111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>45847.47820601852</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -33188,7 +33188,7 @@
         <v>45849.54108796296</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>45848.66840277778</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -33307,7 +33307,7 @@
         <v>45848.33440972222</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -33364,7 +33364,7 @@
         <v>45848.46181712963</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         <v>45848.49012731481</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -33488,7 +33488,7 @@
         <v>45849.42398148148</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -33550,7 +33550,7 @@
         <v>45848.60682870371</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -33607,7 +33607,7 @@
         <v>45950.57458333333</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45950.45982638889</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45950.46956018519</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45812</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45551.36314814815</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45950.6047337963</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -33964,7 +33964,7 @@
         <v>45950.47741898148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -34021,7 +34021,7 @@
         <v>45322</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45953.34563657407</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -34140,7 +34140,7 @@
         <v>45863.48056712963</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -34202,7 +34202,7 @@
         <v>44365.51483796296</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -34259,7 +34259,7 @@
         <v>45867.591875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -34321,7 +34321,7 @@
         <v>45600.34134259259</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -34378,7 +34378,7 @@
         <v>45835</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         <v>45415.66295138889</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -34492,7 +34492,7 @@
         <v>45952.64829861111</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45952.47706018519</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -34616,7 +34616,7 @@
         <v>45952</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -34678,7 +34678,7 @@
         <v>45952.6122337963</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45770</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -34802,7 +34802,7 @@
         <v>45770</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>45691.47466435185</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>45665.47403935185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -34983,7 +34983,7 @@
         <v>45729.87777777778</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -35040,7 +35040,7 @@
         <v>45572</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>45874.34365740741</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>45875.63905092593</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -35221,7 +35221,7 @@
         <v>44326</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>45420.43453703704</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -35345,7 +35345,7 @@
         <v>45639.40686342592</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -35402,7 +35402,7 @@
         <v>45959.35554398148</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -35459,7 +35459,7 @@
         <v>45881</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -35521,7 +35521,7 @@
         <v>45964.44096064815</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -35583,7 +35583,7 @@
         <v>45114</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -35640,7 +35640,7 @@
         <v>45121</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -35702,7 +35702,7 @@
         <v>45575</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -35759,7 +35759,7 @@
         <v>45909.55166666667</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -35816,7 +35816,7 @@
         <v>45741.60680555556</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>45638.52847222222</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>44344</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -35992,7 +35992,7 @@
         <v>45254.55645833333</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -36049,7 +36049,7 @@
         <v>45968.51841435185</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>45881</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>45973.42548611111</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         <v>45973.41636574074</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -36297,7 +36297,7 @@
         <v>45709.59030092593</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>45975.43454861111</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
         <v>45974.56061342593</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -36473,7 +36473,7 @@
         <v>45356.58180555556</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -36530,7 +36530,7 @@
         <v>44286</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -36592,7 +36592,7 @@
         <v>44904</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -36649,7 +36649,7 @@
         <v>45212</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -36711,7 +36711,7 @@
         <v>45713.62837962963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -36773,7 +36773,7 @@
         <v>45209.58488425926</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -36830,7 +36830,7 @@
         <v>45980.60502314815</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -36887,7 +36887,7 @@
         <v>45141</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>45982.40280092593</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -37001,7 +37001,7 @@
         <v>44844.48002314815</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>45708.41151620371</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>45106</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -37182,7 +37182,7 @@
         <v>44923</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44896</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -37301,7 +37301,7 @@
         <v>45077</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         <v>46029.48274305555</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -37415,7 +37415,7 @@
         <v>45986.63236111111</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -37477,7 +37477,7 @@
         <v>46029.47552083333</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -37534,7 +37534,7 @@
         <v>46029.4896875</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -37591,7 +37591,7 @@
         <v>46031.32924768519</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -37653,7 +37653,7 @@
         <v>46024</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -37710,7 +37710,7 @@
         <v>45988.65004629629</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -37767,7 +37767,7 @@
         <v>44678.56600694444</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -37824,7 +37824,7 @@
         <v>45988.62946759259</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -37881,7 +37881,7 @@
         <v>45988.65612268518</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -37938,7 +37938,7 @@
         <v>44309</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -37995,7 +37995,7 @@
         <v>45076</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -38052,7 +38052,7 @@
         <v>46035.58578703704</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -38114,7 +38114,7 @@
         <v>45225</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -38196,7 +38196,7 @@
         <v>45485.55760416666</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -38253,7 +38253,7 @@
         <v>45992.34043981481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -38315,7 +38315,7 @@
         <v>45992.33900462963</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -38377,7 +38377,7 @@
         <v>45992</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -38439,7 +38439,7 @@
         <v>45708.30415509259</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>45246.36751157408</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -38558,7 +38558,7 @@
         <v>46037.64707175926</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -38615,7 +38615,7 @@
         <v>45994.65491898148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -38677,7 +38677,7 @@
         <v>45124</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -38734,7 +38734,7 @@
         <v>46037.62459490741</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -38791,7 +38791,7 @@
         <v>46038.58458333334</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -38848,7 +38848,7 @@
         <v>46038.56025462963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -38905,7 +38905,7 @@
         <v>46038.60658564815</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -38962,7 +38962,7 @@
         <v>46038.56950231481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -39019,7 +39019,7 @@
         <v>46038.55563657408</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -39076,7 +39076,7 @@
         <v>44859</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -39138,7 +39138,7 @@
         <v>45996.53233796296</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -39195,7 +39195,7 @@
         <v>46041.37177083334</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -39252,7 +39252,7 @@
         <v>46038.39409722222</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -39309,7 +39309,7 @@
         <v>46038.38387731482</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -39366,7 +39366,7 @@
         <v>46041.37598379629</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -39423,7 +39423,7 @@
         <v>46038.57403935185</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -39480,7 +39480,7 @@
         <v>46038.57729166667</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -39537,7 +39537,7 @@
         <v>46038.58866898148</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -39594,7 +39594,7 @@
         <v>45404</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -39651,7 +39651,7 @@
         <v>45550.50548611111</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -39708,7 +39708,7 @@
         <v>46038.58077546296</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>46043.36797453704</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         <v>46043.6222337963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>46001.7033912037</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>46042.37128472222</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>45616</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>46042.70995370371</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44238</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>46043.66733796296</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>45926</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -40307,7 +40307,7 @@
         <v>46043.36129629629</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -40364,7 +40364,7 @@
         <v>46043.37592592592</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -40421,7 +40421,7 @@
         <v>46001.64834490741</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -40478,7 +40478,7 @@
         <v>46001.62087962963</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -40535,7 +40535,7 @@
         <v>46042.36486111111</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -40592,7 +40592,7 @@
         <v>46044.69938657407</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -40649,7 +40649,7 @@
         <v>46030.60111111111</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>46030</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>45548</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44558</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44495.68053240741</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>46044.42760416667</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>44651</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>46002.34538194445</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -41120,7 +41120,7 @@
         <v>46003.60017361111</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -41177,7 +41177,7 @@
         <v>45196.38245370371</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -41239,7 +41239,7 @@
         <v>46003.59724537037</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -41296,7 +41296,7 @@
         <v>45456.37555555555</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -41353,7 +41353,7 @@
         <v>45456.3827662037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -41410,7 +41410,7 @@
         <v>45327</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -41467,7 +41467,7 @@
         <v>45110.64971064815</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -41529,7 +41529,7 @@
         <v>46034.39206018519</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         <v>46006.42576388889</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -41643,7 +41643,7 @@
         <v>46034.38818287037</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -41700,7 +41700,7 @@
         <v>46009.72113425926</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -41757,7 +41757,7 @@
         <v>46027</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -41819,7 +41819,7 @@
         <v>45072</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -41881,7 +41881,7 @@
         <v>45792</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -41938,7 +41938,7 @@
         <v>46052.46217592592</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         <v>46013.54934027778</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -42052,7 +42052,7 @@
         <v>45638.52181712963</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -42114,7 +42114,7 @@
         <v>45665.46518518519</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -42171,7 +42171,7 @@
         <v>45700.66315972222</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -42228,7 +42228,7 @@
         <v>45584.69063657407</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -42285,7 +42285,7 @@
         <v>46052.74193287037</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>46052.37825231482</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -42399,7 +42399,7 @@
         <v>46052.56984953704</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>44755</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -42518,7 +42518,7 @@
         <v>44873.41295138889</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -42575,7 +42575,7 @@
         <v>46057.38668981481</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -42632,7 +42632,7 @@
         <v>45240</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -42694,7 +42694,7 @@
         <v>45240</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>46014.31347222222</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>46057.65300925926</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>46057.42493055556</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>45947</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>46057.39158564815</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -43041,7 +43041,7 @@
         <v>44923</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -43098,7 +43098,7 @@
         <v>46057.55954861111</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -43155,7 +43155,7 @@
         <v>45511.64925925926</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -43217,7 +43217,7 @@
         <v>45770.56820601852</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -43279,7 +43279,7 @@
         <v>45247</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -43336,7 +43336,7 @@
         <v>46058.35846064815</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -43393,7 +43393,7 @@
         <v>46058.54565972222</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -43450,7 +43450,7 @@
         <v>46058.61421296297</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         <v>44844</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -43564,7 +43564,7 @@
         <v>46059.47412037037</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -43621,7 +43621,7 @@
         <v>45625.48621527778</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -43683,7 +43683,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -43745,7 +43745,7 @@
         <v>45588.53628472222</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -43802,7 +43802,7 @@
         <v>45204</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -43859,7 +43859,7 @@
         <v>45507</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -43916,7 +43916,7 @@
         <v>45770.5349537037</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -43978,7 +43978,7 @@
         <v>45328.465625</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -44035,7 +44035,7 @@
         <v>44978</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -44092,7 +44092,7 @@
         <v>45482.35762731481</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -44154,7 +44154,7 @@
         <v>45775.695</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -44211,7 +44211,7 @@
         <v>45075</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -44268,7 +44268,7 @@
         <v>45534.5897337963</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -44325,7 +44325,7 @@
         <v>44874</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -44382,7 +44382,7 @@
         <v>45104.48320601852</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -44444,7 +44444,7 @@
         <v>44435</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>45113</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -44568,7 +44568,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -44625,7 +44625,7 @@
         <v>45666.61589120371</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -44682,7 +44682,7 @@
         <v>45666.62162037037</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -44739,7 +44739,7 @@
         <v>45113</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -44801,7 +44801,7 @@
         <v>45114</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -44858,7 +44858,7 @@
         <v>45540</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -44915,7 +44915,7 @@
         <v>45404</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -44972,7 +44972,7 @@
         <v>45660</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -45034,7 +45034,7 @@
         <v>45559.46734953704</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         <v>45120</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -45148,7 +45148,7 @@
         <v>45201.61148148148</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -45210,7 +45210,7 @@
         <v>44904</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -45267,7 +45267,7 @@
         <v>45707.3953125</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -45329,7 +45329,7 @@
         <v>45253</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -45386,7 +45386,7 @@
         <v>45770</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -45448,7 +45448,7 @@
         <v>45114</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -45505,7 +45505,7 @@
         <v>44916</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -45562,7 +45562,7 @@
         <v>45611.65569444445</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -45619,7 +45619,7 @@
         <v>45337</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -45676,7 +45676,7 @@
         <v>44894</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -45733,7 +45733,7 @@
         <v>45204</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -45790,7 +45790,7 @@
         <v>44963.52038194444</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -45847,7 +45847,7 @@
         <v>45665.43965277778</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -45904,7 +45904,7 @@
         <v>45707.35225694445</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -45961,7 +45961,7 @@
         <v>45770.46546296297</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -46023,7 +46023,7 @@
         <v>44364</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -46080,7 +46080,7 @@
         <v>45588.52550925926</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -46137,7 +46137,7 @@
         <v>45229</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -46194,7 +46194,7 @@
         <v>44533</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -46251,7 +46251,7 @@
         <v>45114</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -46313,7 +46313,7 @@
         <v>45540</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -46370,7 +46370,7 @@
         <v>45210.63995370371</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -46432,7 +46432,7 @@
         <v>44371</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -46494,7 +46494,7 @@
         <v>45303</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -46551,7 +46551,7 @@
         <v>44916</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -46608,7 +46608,7 @@
         <v>45204</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -46665,7 +46665,7 @@
         <v>45330.55390046296</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -46722,7 +46722,7 @@
         <v>45702.51415509259</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -46784,7 +46784,7 @@
         <v>45537.35211805555</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -46841,7 +46841,7 @@
         <v>45516.43834490741</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -46898,7 +46898,7 @@
         <v>45584.68275462963</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -46955,7 +46955,7 @@
         <v>45488</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -47012,7 +47012,7 @@
         <v>45488</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -47069,7 +47069,7 @@
         <v>45175</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -47126,7 +47126,7 @@
         <v>45153.54498842593</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -47183,7 +47183,7 @@
         <v>45048</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -47240,7 +47240,7 @@
         <v>44643.44597222222</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -47302,7 +47302,7 @@
         <v>45572.41975694444</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -47364,7 +47364,7 @@
         <v>44910</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         <v>45709.50980324074</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -47478,7 +47478,7 @@
         <v>45709.51084490741</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -47535,7 +47535,7 @@
         <v>45639.37899305556</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -47592,7 +47592,7 @@
         <v>45639.3862962963</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -47649,7 +47649,7 @@
         <v>44411</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -47711,7 +47711,7 @@
         <v>44742.60590277778</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -47773,7 +47773,7 @@
         <v>45107</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -47830,7 +47830,7 @@
         <v>45034</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -47887,7 +47887,7 @@
         <v>45348.47555555555</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -47944,7 +47944,7 @@
         <v>45310.64228009259</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -48001,7 +48001,7 @@
         <v>44496.61677083333</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -48063,7 +48063,7 @@
         <v>45777</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -48120,7 +48120,7 @@
         <v>45782.48197916667</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -48177,7 +48177,7 @@
         <v>45783.39542824074</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -48234,7 +48234,7 @@
         <v>45783.4247337963</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -48291,7 +48291,7 @@
         <v>45539</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -48348,7 +48348,7 @@
         <v>45785.62479166667</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>45432.55324074074</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>45441.486875</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>45121.50986111111</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>45348.49204861111</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>45789.44056712963</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -48700,7 +48700,7 @@
         <v>45789.32916666667</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -48762,7 +48762,7 @@
         <v>45789.36928240741</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -48824,7 +48824,7 @@
         <v>45786</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -48881,7 +48881,7 @@
         <v>45223.56440972222</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -48938,7 +48938,7 @@
         <v>45790.42219907408</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -48995,7 +48995,7 @@
         <v>45791.47893518519</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -49057,7 +49057,7 @@
         <v>45792.57824074074</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -49114,7 +49114,7 @@
         <v>45588.37167824074</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -49171,7 +49171,7 @@
         <v>45453.46716435185</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>

--- a/Översikt ÄLVDALEN.xlsx
+++ b/Översikt ÄLVDALEN.xlsx
@@ -575,7 +575,7 @@
         <v>45614</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>46058.46145833333</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         <v>45937.84384259259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>45901</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>45524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45833</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>45825</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>45700</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>46048.60064814815</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>45803</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>45926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45945.41504629629</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45502</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>45901</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>45278</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>45960.64217592592</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45810</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>45772.53324074074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>45044</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>45978.6218287037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>45840</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>45104.38712962963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>45638.62018518519</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>46049.49635416667</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44532</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>45945.40607638889</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>45988.46520833333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>45118</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>45919.42304398148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>45925.42225694445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>45901</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>45973.54251157407</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>46036.55042824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>45694</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>45159</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>45938.48887731481</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45979.43158564815</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>45110</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>45929.56971064815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>45821.65135416666</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         <v>45868</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>45918</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>45891.43167824074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>45937.6440162037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>45912</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>45835</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>44406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45110.64706018518</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>45834.34892361111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>45407</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>45891</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45895</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45973.53064814815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>46003.64638888889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>45848</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>45162</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>45902.49891203704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>44830</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>45841.50515046297</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>45748.54524305555</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>44519</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>45902.50262731482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45917.96543981481</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>45966.68414351852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45943</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45909.56883101852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>44543</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>45792</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>45947</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45415</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>45804.32020833333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>45925.4190625</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>45362</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>45393</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45522</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>44413</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44472</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>45210</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>44473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>45902.49466435185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>44817</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>45834</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>45834.57958333333</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>45841.64807870371</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45842.46769675926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>45895</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>45987.48891203704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>45770.47667824074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>45988</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>45769.51054398148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>45448</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>45162</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>45902.58693287037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>46036.50204861111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>46002.34777777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>46008.45831018518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45755.33045138889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45432.31541666666</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>45462.39879629629</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>45210</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>45365</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>45800.31733796297</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>45910.76924768519</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>45105</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>45537.50400462963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>45952.43372685185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>45547.5541087963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45968.59255787037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>45630</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>46002.34267361111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>46002.34027777778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>46010.63902777778</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>45511.67277777778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>45511.67440972223</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>45786.34568287037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>45343.57924768519</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>45145</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45804.33314814815</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>45810.55134259259</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>45426</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>45817.49630787037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44830</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>45937.86962962963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>45841.65282407407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45188.45712962963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>45502.37813657407</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>45968.58936342593</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>45992.33722222222</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>45569.65748842592</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>45120</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13851,7 +13851,7 @@
         <v>44830</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44461</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44525</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44435</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44532</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>44365</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44284</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44706</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44419.31553240741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45511.67366898148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>45817.50025462963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44473</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>45833.3283912037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>45638.42091435185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>45182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45895</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45968.59744212963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>45968.59571759259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>45098.70354166667</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>45985.64229166666</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45993.45759259259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44874</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45496.55789351852</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>44370</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44865</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>44365.90097222223</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>44516</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>44327.86341435185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44379</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>44865</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44326.61526620371</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44340</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         <v>44869</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44496.40606481482</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44349</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>45496.26998842593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>45078</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>45432.30798611111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>45817.49222222222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45817.48814814815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>45600</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>45903.43458333334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>45902.45748842593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>45502.85956018518</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>44391</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>45938.31905092593</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>45853</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44881</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>45575</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         <v>45989.4540625</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45993</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44260</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>45575</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>45664</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>45603.36233796296</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>45511.66325231481</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45786.34402777778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44309</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44662.62577546296</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44368.58009259259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44810.58001157407</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44754.35296296296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>44292</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44546</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44463.48194444444</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44471</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44419.31731481481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44281.55321759259</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44651</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44349</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44340.86222222223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>44755</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>44421</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44519</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44411</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44477</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44754.36063657407</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>44552</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>44327.86443287037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44327.86510416667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>44393</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44844</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44327</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44873.34854166667</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>44421</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44817.69123842593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44844.47071759259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44504.06847222222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>44846</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>44278.6621875</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>44459</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>44309.50952546296</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>44467.47215277778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44538</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>44365</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         <v>44357</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>44349.38230324074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>44865</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>44434.45565972223</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>44393</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
         <v>44462.68480324074</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>44459</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>44452</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>44697</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>44697</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>44378</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>44477.48498842592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>44446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>44363</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>44461.46195601852</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>44869</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>44393</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44494.3159375</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>44501</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>44705</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -22558,7 +22558,7 @@
         <v>44314</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>44419</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -22677,7 +22677,7 @@
         <v>44484</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -22734,7 +22734,7 @@
         <v>44522.47883101852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44477.40155092593</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44732.6975</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>44393.6384837963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>44309</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>44363</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44281</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>44350.38857638889</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>44238</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>44539</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -23319,7 +23319,7 @@
         <v>44536</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44399</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44363</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>44607</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44680</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44882.54866898148</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -23681,7 +23681,7 @@
         <v>44369.82663194444</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44355.35329861111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44636</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44816</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44547</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>44378</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44365.89862268518</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>44322.6378125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>45456.40030092592</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>45660</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>45534.59008101852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44476</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>45054.61501157407</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         <v>45097</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>44558</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>45307.5731712963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>44526.57060185185</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -24700,7 +24700,7 @@
         <v>45210</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -24757,7 +24757,7 @@
         <v>45307.59216435185</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         <v>44526</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -24876,7 +24876,7 @@
         <v>45246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -24933,7 +24933,7 @@
         <v>45247</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -24990,7 +24990,7 @@
         <v>45357.96072916667</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>45630.4566550926</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>45512.56623842593</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>45645.50170138889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>45491.62447916667</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>45588.39283564815</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>45191.44871527778</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>45477.73017361111</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>45477.74017361111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44568</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>45608.53949074074</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44529</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>45638.45292824074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>45210</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>45488</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>45593.37266203704</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>45887.39354166666</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         <v>45187</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -26041,7 +26041,7 @@
         <v>45770</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -26103,7 +26103,7 @@
         <v>45799.56943287037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>45798.616875</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>45800</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -26284,7 +26284,7 @@
         <v>45586.50946759259</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>45545.61171296296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>45335.69585648148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>45253</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>45145.57525462963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>44755</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>45572</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>45587.6328587963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45693.55244212963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>45805.61885416666</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>44865.46136574074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45804.49605324074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>45804.4396412037</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>45810.45271990741</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44839.39157407408</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>45707.64342592593</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         <v>45568.56023148148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>45674.62240740741</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -27350,7 +27350,7 @@
         <v>45548.42846064815</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         <v>45888</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>45891.63013888889</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -27526,7 +27526,7 @@
         <v>45811.66903935185</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>44284</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>45589.34738425926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>45322</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>45322</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>45322</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -27868,7 +27868,7 @@
         <v>45810</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -27925,7 +27925,7 @@
         <v>45491.63538194444</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>45891.48471064815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>45812.43825231482</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>45812.47674768518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44904</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>45891</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>45679.42957175926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -28334,7 +28334,7 @@
         <v>45894.46609953704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>45350.6433912037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>45181.53310185186</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>45817.48231481481</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>45322</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         <v>45897.67196759259</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>45815.49082175926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>45015</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>45901.6049537037</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>45901.61150462963</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>45597.55230324074</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>45898.46256944445</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45820.56359953704</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>45820.57053240741</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -29157,7 +29157,7 @@
         <v>45335</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -29214,7 +29214,7 @@
         <v>45820.56780092593</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>44873.34417824074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45911.66576388889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45911.64846064815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45911.56475694444</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -29509,7 +29509,7 @@
         <v>45910.7628125</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>45911.65087962963</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>45826.56265046296</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>45915</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>45826.56873842593</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44820.36509259259</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>45830.82903935185</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>45566.37706018519</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -29970,7 +29970,7 @@
         <v>45919.51228009259</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -30032,7 +30032,7 @@
         <v>44505.56753472222</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -30094,7 +30094,7 @@
         <v>45299.39997685186</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -30151,7 +30151,7 @@
         <v>44473</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -30228,7 +30228,7 @@
         <v>45919.48063657407</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>45310.63633101852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45310.65099537037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -30404,7 +30404,7 @@
         <v>45175</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -30461,7 +30461,7 @@
         <v>45153.47732638889</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -30518,7 +30518,7 @@
         <v>45665.44936342593</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -30575,7 +30575,7 @@
         <v>44888.40673611111</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>45173</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -30694,7 +30694,7 @@
         <v>45925.56752314815</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>45201.60141203704</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44349.39537037037</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>45646.61907407407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -30932,7 +30932,7 @@
         <v>45929.57569444444</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>45630.62005787037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -31056,7 +31056,7 @@
         <v>45926.37971064815</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -31118,7 +31118,7 @@
         <v>45835.44703703704</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>45336</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -31232,7 +31232,7 @@
         <v>45299</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -31289,7 +31289,7 @@
         <v>45929.36357638889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>45233.50606481481</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>45310</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>45645.50583333334</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>45834.54943287037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>45502.33021990741</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>45586.50578703704</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -31703,7 +31703,7 @@
         <v>44370.63354166667</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>45931.6125462963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>45838.69678240741</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>45931.59818287037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45933.47471064814</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45964</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>45700.47643518518</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>45933.37452546296</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>45722.54625</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>45722.56425925926</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -32303,7 +32303,7 @@
         <v>45932.64740740741</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -32360,7 +32360,7 @@
         <v>45187</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -32417,7 +32417,7 @@
         <v>45560.39483796297</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>44911</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>45887</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>45559.47958333333</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>45512.56725694444</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -32712,7 +32712,7 @@
         <v>45512</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>45159.5371875</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>45944.44439814815</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -32893,7 +32893,7 @@
         <v>45846</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>45274.38255787037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>45484</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>45477.71173611111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>45847.47820601852</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -33188,7 +33188,7 @@
         <v>45849.54108796296</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>45848.66840277778</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -33307,7 +33307,7 @@
         <v>45848.33440972222</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -33364,7 +33364,7 @@
         <v>45848.46181712963</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         <v>45848.49012731481</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -33488,7 +33488,7 @@
         <v>45849.42398148148</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -33550,7 +33550,7 @@
         <v>45848.60682870371</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -33607,7 +33607,7 @@
         <v>45950.57458333333</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45950.45982638889</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45950.46956018519</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45812</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45551.36314814815</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45950.6047337963</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -33964,7 +33964,7 @@
         <v>45950.47741898148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -34021,7 +34021,7 @@
         <v>45322</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45953.34563657407</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -34140,7 +34140,7 @@
         <v>45863.48056712963</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -34202,7 +34202,7 @@
         <v>44365.51483796296</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -34259,7 +34259,7 @@
         <v>45867.591875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -34321,7 +34321,7 @@
         <v>45600.34134259259</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -34378,7 +34378,7 @@
         <v>45835</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         <v>45415.66295138889</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -34492,7 +34492,7 @@
         <v>45952.64829861111</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>45952.47706018519</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -34616,7 +34616,7 @@
         <v>45952</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -34678,7 +34678,7 @@
         <v>45952.6122337963</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45770</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -34802,7 +34802,7 @@
         <v>45770</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>45691.47466435185</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>45665.47403935185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -34983,7 +34983,7 @@
         <v>45729.87777777778</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -35040,7 +35040,7 @@
         <v>45572</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>45874.34365740741</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>45875.63905092593</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -35221,7 +35221,7 @@
         <v>44326</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>45420.43453703704</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -35345,7 +35345,7 @@
         <v>45639.40686342592</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -35402,7 +35402,7 @@
         <v>45959.35554398148</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -35459,7 +35459,7 @@
         <v>45881</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -35521,7 +35521,7 @@
         <v>45964.44096064815</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -35583,7 +35583,7 @@
         <v>45114</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -35640,7 +35640,7 @@
         <v>45121</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -35702,7 +35702,7 @@
         <v>45575</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -35759,7 +35759,7 @@
         <v>45909.55166666667</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -35816,7 +35816,7 @@
         <v>45741.60680555556</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>45638.52847222222</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>44344</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -35992,7 +35992,7 @@
         <v>45254.55645833333</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -36049,7 +36049,7 @@
         <v>45968.51841435185</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -36111,7 +36111,7 @@
         <v>45881</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>45973.42548611111</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         <v>45973.41636574074</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -36297,7 +36297,7 @@
         <v>45709.59030092593</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>45975.43454861111</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
         <v>45974.56061342593</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -36473,7 +36473,7 @@
         <v>45356.58180555556</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -36530,7 +36530,7 @@
         <v>44286</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -36592,7 +36592,7 @@
         <v>44904</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -36649,7 +36649,7 @@
         <v>45212</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -36711,7 +36711,7 @@
         <v>45713.62837962963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -36773,7 +36773,7 @@
         <v>45209.58488425926</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -36830,7 +36830,7 @@
         <v>45980.60502314815</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -36887,7 +36887,7 @@
         <v>45141</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>45982.40280092593</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -37001,7 +37001,7 @@
         <v>44844.48002314815</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>45708.41151620371</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         <v>45106</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -37182,7 +37182,7 @@
         <v>44923</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44896</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -37301,7 +37301,7 @@
         <v>45077</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         <v>46029.48274305555</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -37415,7 +37415,7 @@
         <v>45986.63236111111</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -37477,7 +37477,7 @@
         <v>46029.47552083333</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -37534,7 +37534,7 @@
         <v>46029.4896875</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -37591,7 +37591,7 @@
         <v>46031.32924768519</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -37653,7 +37653,7 @@
         <v>46024</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -37710,7 +37710,7 @@
         <v>45988.65004629629</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -37767,7 +37767,7 @@
         <v>44678.56600694444</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -37824,7 +37824,7 @@
         <v>45988.62946759259</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -37881,7 +37881,7 @@
         <v>45988.65612268518</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -37938,7 +37938,7 @@
         <v>44309</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -37995,7 +37995,7 @@
         <v>45076</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -38052,7 +38052,7 @@
         <v>46035.58578703704</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -38114,7 +38114,7 @@
         <v>45225</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -38196,7 +38196,7 @@
         <v>45485.55760416666</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -38253,7 +38253,7 @@
         <v>45992.34043981481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -38315,7 +38315,7 @@
         <v>45992.33900462963</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -38377,7 +38377,7 @@
         <v>45992</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -38439,7 +38439,7 @@
         <v>45708.30415509259</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>45246.36751157408</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -38558,7 +38558,7 @@
         <v>46037.64707175926</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -38615,7 +38615,7 @@
         <v>45994.65491898148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -38677,7 +38677,7 @@
         <v>45124</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -38734,7 +38734,7 @@
         <v>46037.62459490741</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -38791,7 +38791,7 @@
         <v>46038.58458333334</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -38848,7 +38848,7 @@
         <v>46038.56025462963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -38905,7 +38905,7 @@
         <v>46038.60658564815</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -38962,7 +38962,7 @@
         <v>46038.56950231481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -39019,7 +39019,7 @@
         <v>46038.55563657408</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -39076,7 +39076,7 @@
         <v>44859</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -39138,7 +39138,7 @@
         <v>45996.53233796296</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -39195,7 +39195,7 @@
         <v>46041.37177083334</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -39252,7 +39252,7 @@
         <v>46038.39409722222</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -39309,7 +39309,7 @@
         <v>46038.38387731482</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -39366,7 +39366,7 @@
         <v>46041.37598379629</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -39423,7 +39423,7 @@
         <v>46038.57403935185</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -39480,7 +39480,7 @@
         <v>46038.57729166667</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -39537,7 +39537,7 @@
         <v>46038.58866898148</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -39594,7 +39594,7 @@
         <v>45404</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -39651,7 +39651,7 @@
         <v>45550.50548611111</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -39708,7 +39708,7 @@
         <v>46038.58077546296</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>46043.36797453704</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -39822,7 +39822,7 @@
         <v>46043.6222337963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>46001.7033912037</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>46042.37128472222</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>45616</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>46042.70995370371</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44238</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>46043.66733796296</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -40221,7 +40221,7 @@
         <v>45926</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -40307,7 +40307,7 @@
         <v>46043.36129629629</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -40364,7 +40364,7 @@
         <v>46043.37592592592</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -40421,7 +40421,7 @@
         <v>46001.64834490741</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -40478,7 +40478,7 @@
         <v>46001.62087962963</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -40535,7 +40535,7 @@
         <v>46042.36486111111</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -40592,7 +40592,7 @@
         <v>46044.69938657407</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -40649,7 +40649,7 @@
         <v>46030.60111111111</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>46030</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>45548</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44558</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44495.68053240741</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>46044.42760416667</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>44651</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>46002.34538194445</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -41120,7 +41120,7 @@
         <v>46003.60017361111</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -41177,7 +41177,7 @@
         <v>45196.38245370371</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -41239,7 +41239,7 @@
         <v>46003.59724537037</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -41296,7 +41296,7 @@
         <v>45456.37555555555</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -41353,7 +41353,7 @@
         <v>45456.3827662037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -41410,7 +41410,7 @@
         <v>45327</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -41467,7 +41467,7 @@
         <v>45110.64971064815</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -41529,7 +41529,7 @@
         <v>46034.39206018519</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         <v>46006.42576388889</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -41643,7 +41643,7 @@
         <v>46034.38818287037</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -41700,7 +41700,7 @@
         <v>46009.72113425926</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -41757,7 +41757,7 @@
         <v>46027</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -41819,7 +41819,7 @@
         <v>45072</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -41881,7 +41881,7 @@
         <v>45792</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -41938,7 +41938,7 @@
         <v>46052.46217592592</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         <v>46013.54934027778</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -42052,7 +42052,7 @@
         <v>45638.52181712963</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -42114,7 +42114,7 @@
         <v>45665.46518518519</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -42171,7 +42171,7 @@
         <v>45700.66315972222</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -42228,7 +42228,7 @@
         <v>45584.69063657407</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -42285,7 +42285,7 @@
         <v>46052.74193287037</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>46052.37825231482</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -42399,7 +42399,7 @@
         <v>46052.56984953704</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>44755</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -42518,7 +42518,7 @@
         <v>44873.41295138889</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -42575,7 +42575,7 @@
         <v>46057.38668981481</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -42632,7 +42632,7 @@
         <v>45240</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -42694,7 +42694,7 @@
         <v>45240</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>46014.31347222222</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>46057.65300925926</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>46057.42493055556</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>45947</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>46057.39158564815</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -43041,7 +43041,7 @@
         <v>44923</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -43098,7 +43098,7 @@
         <v>46057.55954861111</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -43155,7 +43155,7 @@
         <v>45511.64925925926</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -43217,7 +43217,7 @@
         <v>45770.56820601852</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -43279,7 +43279,7 @@
         <v>45247</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -43336,7 +43336,7 @@
         <v>46058.35846064815</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -43393,7 +43393,7 @@
         <v>46058.54565972222</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -43450,7 +43450,7 @@
         <v>46058.61421296297</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         <v>44844</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -43564,7 +43564,7 @@
         <v>46059.47412037037</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -43621,7 +43621,7 @@
         <v>45625.48621527778</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -43683,7 +43683,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -43745,7 +43745,7 @@
         <v>45588.53628472222</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -43802,7 +43802,7 @@
         <v>45204</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -43859,7 +43859,7 @@
         <v>45507</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -43916,7 +43916,7 @@
         <v>45770.5349537037</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -43978,7 +43978,7 @@
         <v>45328.465625</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -44035,7 +44035,7 @@
         <v>44978</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -44092,7 +44092,7 @@
         <v>45482.35762731481</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -44154,7 +44154,7 @@
         <v>45775.695</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -44211,7 +44211,7 @@
         <v>45075</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -44268,7 +44268,7 @@
         <v>45534.5897337963</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -44325,7 +44325,7 @@
         <v>44874</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -44382,7 +44382,7 @@
         <v>45104.48320601852</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -44444,7 +44444,7 @@
         <v>44435</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>45113</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -44568,7 +44568,7 @@
         <v>45114</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -44625,7 +44625,7 @@
         <v>45666.61589120371</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -44682,7 +44682,7 @@
         <v>45666.62162037037</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -44739,7 +44739,7 @@
         <v>45113</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -44801,7 +44801,7 @@
         <v>45114</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -44858,7 +44858,7 @@
         <v>45540</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -44915,7 +44915,7 @@
         <v>45404</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -44972,7 +44972,7 @@
         <v>45660</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -45034,7 +45034,7 @@
         <v>45559.46734953704</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         <v>45120</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -45148,7 +45148,7 @@
         <v>45201.61148148148</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -45210,7 +45210,7 @@
         <v>44904</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -45267,7 +45267,7 @@
         <v>45707.3953125</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -45329,7 +45329,7 @@
         <v>45253</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -45386,7 +45386,7 @@
         <v>45770</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -45448,7 +45448,7 @@
         <v>45114</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -45505,7 +45505,7 @@
         <v>44916</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -45562,7 +45562,7 @@
         <v>45611.65569444445</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -45619,7 +45619,7 @@
         <v>45337</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -45676,7 +45676,7 @@
         <v>44894</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -45733,7 +45733,7 @@
         <v>45204</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -45790,7 +45790,7 @@
         <v>44963.52038194444</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -45847,7 +45847,7 @@
         <v>45665.43965277778</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -45904,7 +45904,7 @@
         <v>45707.35225694445</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -45961,7 +45961,7 @@
         <v>45770.46546296297</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -46023,7 +46023,7 @@
         <v>44364</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -46080,7 +46080,7 @@
         <v>45588.52550925926</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -46137,7 +46137,7 @@
         <v>45229</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -46194,7 +46194,7 @@
         <v>44533</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -46251,7 +46251,7 @@
         <v>45114</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -46313,7 +46313,7 @@
         <v>45540</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -46370,7 +46370,7 @@
         <v>45210.63995370371</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -46432,7 +46432,7 @@
         <v>44371</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -46494,7 +46494,7 @@
         <v>45303</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -46551,7 +46551,7 @@
         <v>44916</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -46608,7 +46608,7 @@
         <v>45204</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -46665,7 +46665,7 @@
         <v>45330.55390046296</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -46722,7 +46722,7 @@
         <v>45702.51415509259</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -46784,7 +46784,7 @@
         <v>45537.35211805555</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -46841,7 +46841,7 @@
         <v>45516.43834490741</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -46898,7 +46898,7 @@
         <v>45584.68275462963</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -46955,7 +46955,7 @@
         <v>45488</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -47012,7 +47012,7 @@
         <v>45488</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -47069,7 +47069,7 @@
         <v>45175</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -47126,7 +47126,7 @@
         <v>45153.54498842593</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -47183,7 +47183,7 @@
         <v>45048</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -47240,7 +47240,7 @@
         <v>44643.44597222222</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -47302,7 +47302,7 @@
         <v>45572.41975694444</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -47364,7 +47364,7 @@
         <v>44910</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         <v>45709.50980324074</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -47478,7 +47478,7 @@
         <v>45709.51084490741</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -47535,7 +47535,7 @@
         <v>45639.37899305556</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -47592,7 +47592,7 @@
         <v>45639.3862962963</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -47649,7 +47649,7 @@
         <v>44411</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -47711,7 +47711,7 @@
         <v>44742.60590277778</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -47773,7 +47773,7 @@
         <v>45107</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -47830,7 +47830,7 @@
         <v>45034</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -47887,7 +47887,7 @@
         <v>45348.47555555555</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -47944,7 +47944,7 @@
         <v>45310.64228009259</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -48001,7 +48001,7 @@
         <v>44496.61677083333</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -48063,7 +48063,7 @@
         <v>45777</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -48120,7 +48120,7 @@
         <v>45782.48197916667</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -48177,7 +48177,7 @@
         <v>45783.39542824074</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -48234,7 +48234,7 @@
         <v>45783.4247337963</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -48291,7 +48291,7 @@
         <v>45539</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -48348,7 +48348,7 @@
         <v>45785.62479166667</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>45432.55324074074</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>45441.486875</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>45121.50986111111</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>45348.49204861111</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>45789.44056712963</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -48700,7 +48700,7 @@
         <v>45789.32916666667</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -48762,7 +48762,7 @@
         <v>45789.36928240741</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -48824,7 +48824,7 @@
         <v>45786</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -48881,7 +48881,7 @@
         <v>45223.56440972222</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -48938,7 +48938,7 @@
         <v>45790.42219907408</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -48995,7 +48995,7 @@
         <v>45791.47893518519</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -49057,7 +49057,7 @@
         <v>45792.57824074074</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -49114,7 +49114,7 @@
         <v>45588.37167824074</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -49171,7 +49171,7 @@
         <v>45453.46716435185</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>

--- a/Översikt ÄLVDALEN.xlsx
+++ b/Översikt ÄLVDALEN.xlsx
@@ -575,7 +575,7 @@
         <v>46058.46145833333</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45937.84384259259</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>45901</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>45833</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45825</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45700</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>46048.60064814815</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45803</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>45926</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>45945.41504629629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45502</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>46052.56984953704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45901</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45278</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>45960.64217592592</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>45810</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>45772.53324074074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45044</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45840</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>45104.38712962963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>45978.6218287037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>45638.62018518519</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44532</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>45945.40607638889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45988.46520833333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>45118</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>45919.42304398148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>45925.42225694445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>45901</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45973.54251157407</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>46036.55042824074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45694</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>45159</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>45938.48887731481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>45979.43158564815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>45110</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45821.65135416666</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>45929.56971064815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>45918</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>45891.43167824074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>45937.6440162037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>45912</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>45868</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>45835</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>44406</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>45110.64706018518</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>45834.34892361111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>45407</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>45891</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>45895</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45973.53064814815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>46003.64638888889</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>45848</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>46031.32924768519</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>45162</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>45902.49891203704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>45841.50515046297</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>44830</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>45748.54524305555</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44519</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>45902.50262731482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>45917.96543981481</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>45966.68414351852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>45943</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>45909.56883101852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44543</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45792</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>45947</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45415</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>45925.4190625</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45362</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>45393</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>45522</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>45804.32020833333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44413</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>44472</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>45210</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44473</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>45834</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>45834.57958333333</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>45902.49466435185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>45841.64807870371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44817</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45842.46769675926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>45895</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>45987.48891203704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>45770.47667824074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>45988</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>45769.51054398148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>45448</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>45162</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>45902.58693287037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>46036.50204861111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>46002.34777777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>46008.45831018518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>45755.33045138889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>45432.31541666666</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>45462.39879629629</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>45210</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>45365</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>45910.76924768519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>45105</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>45537.50400462963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>45547.5541087963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>45952.43372685185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45968.59255787037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
         <v>45630</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>46002.34267361111</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>46002.34027777778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>46010.63902777778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>45511.67277777778</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>46063</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>45511.67440972223</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -12349,7 +12349,7 @@
         <v>45786.34568287037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45800.31733796297</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>45145</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>45817.49630787037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>45426</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44830</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>45841.65282407407</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>45188.45712962963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45937.86962962963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>45502.37813657407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>45968.58936342593</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45992.33722222222</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>45569.65748842592</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44830</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44461</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>45343.57924768519</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>45804.33314814815</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>45810.55134259259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44525</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>44435</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44532</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44284</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44706</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44419.31553240741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45511.67366898148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45833.3283912037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>44473</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>45638.42091435185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>45182</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>45098.70354166667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>45895</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45968.59744212963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>45968.59571759259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45985.64229166666</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>45993.45759259259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44874</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>45496.55789351852</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>45817.50025462963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>44370</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44865</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44365.90097222223</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>44516</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44327.86341435185</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>44379</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44326.61526620371</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44340</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44869</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44496.40606481482</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44349</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>45496.26998842593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>45078</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>45432.30798611111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -17359,7 +17359,7 @@
         <v>45600</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>45502.85956018518</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
         <v>45903.43458333334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>45902.45748842593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>45853</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>44391</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45938.31905092593</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44881</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45575</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>45989.4540625</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>45993</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44260</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>45575</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>45664</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45603.36233796296</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45511.66325231481</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>45786.34402777778</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>45817.49222222222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45817.48814814815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44309</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>44368.58009259259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44810.58001157407</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44754.35296296296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44662.62577546296</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44292</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44546</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44471</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44463.48194444444</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44419.31731481481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44846</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44281.55321759259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44651</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44340.86222222223</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>44755</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44519</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44421</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44411</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44477</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>44754.36063657407</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>44552</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44327.86443287037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>44327.86510416667</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>44393</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44393</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44844</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>44327</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>44278.6621875</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>44817.69123842593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>44421</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>44873.34854166667</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>44844.47071759259</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44504.06847222222</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44846</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44459</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>44309.50952546296</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>44467.47215277778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>44538</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>44365</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>44349.38230324074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>44357</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44865</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44434.45565972223</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44393</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44462.68480324074</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>44452</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44459</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>44697</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>44697</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>44378</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44477.48498842592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44363</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -22273,7 +22273,7 @@
         <v>44461.46195601852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -22330,7 +22330,7 @@
         <v>44869</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -22392,7 +22392,7 @@
         <v>44393</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44494.3159375</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44501</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44705</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44314</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44419</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44484</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44522.47883101852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44477.40155092593</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44732.6975</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44309</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44393.6384837963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44363</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>44281</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44350.38857638889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44539</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44536</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>44399</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -23453,7 +23453,7 @@
         <v>44680</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44363</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
         <v>44607</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         <v>44882.54866898148</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44369.82663194444</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>44355.35329861111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>44636</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>44816</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>44547</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -24001,7 +24001,7 @@
         <v>44378</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>44365.89862268518</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -24125,7 +24125,7 @@
         <v>44322.6378125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -24187,7 +24187,7 @@
         <v>45456.40030092592</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -24244,7 +24244,7 @@
         <v>45534.59008101852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
         <v>45660</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44476</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>45054.61501157407</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>45097</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>44558</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44526.57060185185</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>45307.5731712963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>45307.59216435185</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>45210</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44526</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -24891,7 +24891,7 @@
         <v>45247</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -24948,7 +24948,7 @@
         <v>45645.50170138889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>45630.4566550926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>45512.56623842593</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -25124,7 +25124,7 @@
         <v>45246</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -25181,7 +25181,7 @@
         <v>45588.39283564815</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -25238,7 +25238,7 @@
         <v>45191.44871527778</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -25295,7 +25295,7 @@
         <v>45608.53949074074</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -25352,7 +25352,7 @@
         <v>44529</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -25414,7 +25414,7 @@
         <v>45477.73017361111</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -25471,7 +25471,7 @@
         <v>45477.74017361111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -25528,7 +25528,7 @@
         <v>44568</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>45357.96072916667</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>45210</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>45638.45292824074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>45593.37266203704</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>45488</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>45187</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>45770</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>45586.50946759259</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>45545.61171296296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>45335.69585648148</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>45145.57525462963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>44755</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>45253</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>45572</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>45693.55244212963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>45587.6328587963</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>44839.39157407408</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>45491.62447916667</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>45548.42846064815</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44284</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45589.34738425926</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44904</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>45322</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>45322</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>45322</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>45817.48231481481</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>45679.42957175926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>45491.63538194444</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         <v>45322</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -27273,7 +27273,7 @@
         <v>45815.49082175926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45887.39354166666</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>45181.53310185186</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>45015</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>45820.56359953704</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>45820.57053240741</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -27635,7 +27635,7 @@
         <v>45597.55230324074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         <v>45820.56780092593</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>45707.64342592593</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -27816,7 +27816,7 @@
         <v>45568.56023148148</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>45335</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>45888</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>45891.63013888889</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -28049,7 +28049,7 @@
         <v>45810</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -28106,7 +28106,7 @@
         <v>45826.56265046296</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>45891.48471064815</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>45891</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>45894.46609953704</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>45826.56873842593</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>44873.34417824074</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         <v>45830.82903935185</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -28510,7 +28510,7 @@
         <v>45897.67196759259</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>45901.6049537037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>45901.61150462963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -28681,7 +28681,7 @@
         <v>45835.44703703704</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -28738,7 +28738,7 @@
         <v>45898.46256944445</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -28795,7 +28795,7 @@
         <v>44820.36509259259</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -28852,7 +28852,7 @@
         <v>45834.54943287037</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>45566.37706018519</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -28971,7 +28971,7 @@
         <v>44505.56753472222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45838.69678240741</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>45299.39997685186</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44473</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>45310.63633101852</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>45310.65099537037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>45175</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>45153.47732638889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>45665.44936342593</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -29514,7 +29514,7 @@
         <v>44888.40673611111</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -29571,7 +29571,7 @@
         <v>45173</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -29633,7 +29633,7 @@
         <v>45911.66576388889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -29690,7 +29690,7 @@
         <v>45911.64846064815</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -29747,7 +29747,7 @@
         <v>45911.56475694444</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>45201.60141203704</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>45910.7628125</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -29928,7 +29928,7 @@
         <v>44349.39537037037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>45646.61907407407</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>45630.62005787037</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45911.65087962963</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45336</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45299</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>45915</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>45233.50606481481</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>45310</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>45846</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -30518,7 +30518,7 @@
         <v>45645.50583333334</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -30575,7 +30575,7 @@
         <v>45847.47820601852</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -30637,7 +30637,7 @@
         <v>45502.33021990741</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>45586.50578703704</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>45849.54108796296</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -30818,7 +30818,7 @@
         <v>44370.63354166667</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>45848.66840277778</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>45848.33440972222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>45848.46181712963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -31056,7 +31056,7 @@
         <v>45848.49012731481</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -31118,7 +31118,7 @@
         <v>45849.42398148148</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>45848.60682870371</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>45919.51228009259</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>45919.48063657407</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>45700.47643518518</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>45812</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -31485,7 +31485,7 @@
         <v>45722.54625</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>45722.56425925926</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -31609,7 +31609,7 @@
         <v>45187</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         <v>45560.39483796297</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45863.48056712963</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>44365.51483796296</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>45867.591875</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>44911</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>45925.56752314815</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -32023,7 +32023,7 @@
         <v>45415.66295138889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45559.47958333333</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -32137,7 +32137,7 @@
         <v>45512.56725694444</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45512</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>45770</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45929.57569444444</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>45159.5371875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -32447,7 +32447,7 @@
         <v>45770</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -32509,7 +32509,7 @@
         <v>45926.37971064815</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -32571,7 +32571,7 @@
         <v>45929.36357638889</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -32633,7 +32633,7 @@
         <v>45572</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -32695,7 +32695,7 @@
         <v>45874.34365740741</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -32757,7 +32757,7 @@
         <v>45931.6125462963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>45875.63905092593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -32871,7 +32871,7 @@
         <v>45931.59818287037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44326</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -32990,7 +32990,7 @@
         <v>45274.38255787037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -33047,7 +33047,7 @@
         <v>45933.47471064814</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -33109,7 +33109,7 @@
         <v>45484</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -33166,7 +33166,7 @@
         <v>45964</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -33223,7 +33223,7 @@
         <v>45477.71173611111</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -33280,7 +33280,7 @@
         <v>45933.37452546296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -33337,7 +33337,7 @@
         <v>45932.64740740741</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>45881</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>45114</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -33513,7 +33513,7 @@
         <v>45551.36314814815</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -33570,7 +33570,7 @@
         <v>45741.60680555556</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -33627,7 +33627,7 @@
         <v>45322</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         <v>45887</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         <v>45881</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>45600.34134259259</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>45691.47466435185</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -33922,7 +33922,7 @@
         <v>45665.47403935185</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -33979,7 +33979,7 @@
         <v>45729.87777777778</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -34036,7 +34036,7 @@
         <v>45944.44439814815</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -34093,7 +34093,7 @@
         <v>45420.43453703704</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45639.40686342592</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45950.57458333333</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -34274,7 +34274,7 @@
         <v>45950.45982638889</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -34331,7 +34331,7 @@
         <v>45950.46956018519</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -34388,7 +34388,7 @@
         <v>45950.6047337963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>45950.47741898148</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>45953.34563657407</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -34569,7 +34569,7 @@
         <v>45835</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         <v>45952.64829861111</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -34688,7 +34688,7 @@
         <v>45952.47706018519</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>45952</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -34812,7 +34812,7 @@
         <v>45952.6122337963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>45121</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -34936,7 +34936,7 @@
         <v>45638.52847222222</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>44344</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>45254.55645833333</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>45709.59030092593</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -35174,7 +35174,7 @@
         <v>45959.35554398148</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -35231,7 +35231,7 @@
         <v>45356.58180555556</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>44286</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>44904</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -35407,7 +35407,7 @@
         <v>45964.44096064815</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         <v>45212</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -35531,7 +35531,7 @@
         <v>45713.62837962963</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -35593,7 +35593,7 @@
         <v>45575</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -35650,7 +35650,7 @@
         <v>45909.55166666667</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -35707,7 +35707,7 @@
         <v>45209.58488425926</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -35764,7 +35764,7 @@
         <v>45968.51841435185</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>45141</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44844.48002314815</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -35945,7 +35945,7 @@
         <v>45973.42548611111</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -36007,7 +36007,7 @@
         <v>45973.41636574074</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -36069,7 +36069,7 @@
         <v>45708.41151620371</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>45975.43454861111</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -36188,7 +36188,7 @@
         <v>45106</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>45974.56061342593</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44923</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44896</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -36421,7 +36421,7 @@
         <v>45077</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>45980.60502314815</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -36535,7 +36535,7 @@
         <v>44678.56600694444</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -36592,7 +36592,7 @@
         <v>45982.40280092593</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -36649,7 +36649,7 @@
         <v>44309</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         <v>45076</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -36763,7 +36763,7 @@
         <v>45986.63236111111</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -36825,7 +36825,7 @@
         <v>45485.55760416666</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -36882,7 +36882,7 @@
         <v>45988.65004629629</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -36939,7 +36939,7 @@
         <v>45988.62946759259</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -36996,7 +36996,7 @@
         <v>45988.65612268518</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -37053,7 +37053,7 @@
         <v>45708.30415509259</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -37115,7 +37115,7 @@
         <v>45246.36751157408</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -37172,7 +37172,7 @@
         <v>46035.58578703704</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -37234,7 +37234,7 @@
         <v>45124</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -37291,7 +37291,7 @@
         <v>45225</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>45992.34043981481</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -37435,7 +37435,7 @@
         <v>45992.33900462963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -37497,7 +37497,7 @@
         <v>45992</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -37559,7 +37559,7 @@
         <v>44859</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -37621,7 +37621,7 @@
         <v>46037.64707175926</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -37678,7 +37678,7 @@
         <v>45994.65491898148</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -37740,7 +37740,7 @@
         <v>45404</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -37797,7 +37797,7 @@
         <v>46037.62459490741</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -37854,7 +37854,7 @@
         <v>46038.58458333334</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -37911,7 +37911,7 @@
         <v>45550.50548611111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -37968,7 +37968,7 @@
         <v>46038.56025462963</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -38025,7 +38025,7 @@
         <v>46038.60658564815</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -38082,7 +38082,7 @@
         <v>46038.56950231481</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -38139,7 +38139,7 @@
         <v>46038.55563657408</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -38196,7 +38196,7 @@
         <v>45996.53233796296</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -38253,7 +38253,7 @@
         <v>46041.37177083334</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -38310,7 +38310,7 @@
         <v>46038.39409722222</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -38367,7 +38367,7 @@
         <v>46038.38387731482</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -38424,7 +38424,7 @@
         <v>46041.37598379629</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -38481,7 +38481,7 @@
         <v>46038.57403935185</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -38538,7 +38538,7 @@
         <v>46038.57729166667</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -38595,7 +38595,7 @@
         <v>45616</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -38652,7 +38652,7 @@
         <v>46038.58866898148</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -38709,7 +38709,7 @@
         <v>46038.58077546296</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -38766,7 +38766,7 @@
         <v>46043.36797453704</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -38823,7 +38823,7 @@
         <v>46043.6222337963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -38880,7 +38880,7 @@
         <v>46001.7033912037</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -38937,7 +38937,7 @@
         <v>46042.37128472222</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -38994,7 +38994,7 @@
         <v>46042.70995370371</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
         <v>45548</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -39108,7 +39108,7 @@
         <v>44558</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -39165,7 +39165,7 @@
         <v>44495.68053240741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         <v>46043.66733796296</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -39284,7 +39284,7 @@
         <v>45926</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -39370,7 +39370,7 @@
         <v>44651</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -39432,7 +39432,7 @@
         <v>46043.36129629629</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -39489,7 +39489,7 @@
         <v>46043.37592592592</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -39546,7 +39546,7 @@
         <v>46001.64834490741</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -39603,7 +39603,7 @@
         <v>46001.62087962963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -39660,7 +39660,7 @@
         <v>46042.36486111111</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -39717,7 +39717,7 @@
         <v>45196.38245370371</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -39779,7 +39779,7 @@
         <v>46044.69938657407</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -39836,7 +39836,7 @@
         <v>45456.37555555555</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -39893,7 +39893,7 @@
         <v>45456.3827662037</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -39950,7 +39950,7 @@
         <v>46044.42760416667</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -40007,7 +40007,7 @@
         <v>45327</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -40064,7 +40064,7 @@
         <v>45110.64971064815</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -40126,7 +40126,7 @@
         <v>46002.34538194445</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -40188,7 +40188,7 @@
         <v>46003.60017361111</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -40245,7 +40245,7 @@
         <v>46003.59724537037</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -40302,7 +40302,7 @@
         <v>46034.39206018519</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -40359,7 +40359,7 @@
         <v>46006.42576388889</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -40416,7 +40416,7 @@
         <v>45072</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -40478,7 +40478,7 @@
         <v>46034.38818287037</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -40535,7 +40535,7 @@
         <v>46009.72113425926</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -40592,7 +40592,7 @@
         <v>45638.52181712963</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -40654,7 +40654,7 @@
         <v>45665.46518518519</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -40711,7 +40711,7 @@
         <v>45700.66315972222</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>45584.69063657407</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>44755</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>44873.41295138889</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>46013.54934027778</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45240</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>45240</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -41120,7 +41120,7 @@
         <v>46052.74193287037</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -41177,7 +41177,7 @@
         <v>46052.37825231482</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>44923</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -41291,7 +41291,7 @@
         <v>46057.38668981481</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -41348,7 +41348,7 @@
         <v>46014.31347222222</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -41405,7 +41405,7 @@
         <v>46057.65300925926</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -41462,7 +41462,7 @@
         <v>45511.64925925926</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -41524,7 +41524,7 @@
         <v>46057.42493055556</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -41581,7 +41581,7 @@
         <v>45770.56820601852</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -41643,7 +41643,7 @@
         <v>45947</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -41700,7 +41700,7 @@
         <v>45247</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -41757,7 +41757,7 @@
         <v>46057.39158564815</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -41814,7 +41814,7 @@
         <v>46057.55954861111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>44844</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -41928,7 +41928,7 @@
         <v>46058.35846064815</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -41985,7 +41985,7 @@
         <v>46058.54565972222</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -42042,7 +42042,7 @@
         <v>45625.48621527778</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>46058.61421296297</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>44873</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -42223,7 +42223,7 @@
         <v>46059.47412037037</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>46062.58864583333</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -42337,7 +42337,7 @@
         <v>45588.53628472222</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -42394,7 +42394,7 @@
         <v>46062.59821759259</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -42451,7 +42451,7 @@
         <v>46062.60400462963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -42508,7 +42508,7 @@
         <v>46062.57849537037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -42565,7 +42565,7 @@
         <v>45204</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -42622,7 +42622,7 @@
         <v>46063.68006944445</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -42679,7 +42679,7 @@
         <v>45507</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -42736,7 +42736,7 @@
         <v>46062.58371527777</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -42793,7 +42793,7 @@
         <v>46063</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -42855,7 +42855,7 @@
         <v>45770.5349537037</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -42917,7 +42917,7 @@
         <v>45328.465625</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -42974,7 +42974,7 @@
         <v>44978</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -43031,7 +43031,7 @@
         <v>46063</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -43093,7 +43093,7 @@
         <v>45482.35762731481</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -43155,7 +43155,7 @@
         <v>45775.695</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -43212,7 +43212,7 @@
         <v>46066.36326388889</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -43269,7 +43269,7 @@
         <v>45792</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -43326,7 +43326,7 @@
         <v>45075</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -43383,7 +43383,7 @@
         <v>46024</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -43440,7 +43440,7 @@
         <v>46027</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -43502,7 +43502,7 @@
         <v>45534.5897337963</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -43559,7 +43559,7 @@
         <v>46052</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -43616,7 +43616,7 @@
         <v>44874</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -43673,7 +43673,7 @@
         <v>46029.4896875</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -43730,7 +43730,7 @@
         <v>46071.55731481482</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -43787,7 +43787,7 @@
         <v>45104.48320601852</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -43849,7 +43849,7 @@
         <v>46071.57155092592</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         <v>46069</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -43963,7 +43963,7 @@
         <v>44435</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -44025,7 +44025,7 @@
         <v>46029.48274305555</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -44082,7 +44082,7 @@
         <v>45113</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -44144,7 +44144,7 @@
         <v>46029.47552083333</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -44201,7 +44201,7 @@
         <v>45114</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -44258,7 +44258,7 @@
         <v>45666.61589120371</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -44315,7 +44315,7 @@
         <v>45666.62162037037</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -44372,7 +44372,7 @@
         <v>46030.60111111111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -44429,7 +44429,7 @@
         <v>45113</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -44491,7 +44491,7 @@
         <v>45114</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -44548,7 +44548,7 @@
         <v>46073.43303240741</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -44605,7 +44605,7 @@
         <v>45540</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -44662,7 +44662,7 @@
         <v>45404</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -44719,7 +44719,7 @@
         <v>46030</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -44776,7 +44776,7 @@
         <v>45660</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -44838,7 +44838,7 @@
         <v>45559.46734953704</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -44895,7 +44895,7 @@
         <v>45120</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -44952,7 +44952,7 @@
         <v>45201.61148148148</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -45014,7 +45014,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -45071,7 +45071,7 @@
         <v>45707.3953125</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>45253</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>45770</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -45252,7 +45252,7 @@
         <v>45114</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>44916</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -45366,7 +45366,7 @@
         <v>45611.65569444445</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -45423,7 +45423,7 @@
         <v>45337</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>44894</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>45204</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -45594,7 +45594,7 @@
         <v>44963.52038194444</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -45651,7 +45651,7 @@
         <v>45665.43965277778</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -45708,7 +45708,7 @@
         <v>45707.35225694445</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         <v>45770.46546296297</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -45827,7 +45827,7 @@
         <v>44364</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -45884,7 +45884,7 @@
         <v>45588.52550925926</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -45941,7 +45941,7 @@
         <v>45229</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -45998,7 +45998,7 @@
         <v>44533</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -46055,7 +46055,7 @@
         <v>45114</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -46117,7 +46117,7 @@
         <v>45540</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -46174,7 +46174,7 @@
         <v>45210.63995370371</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -46236,7 +46236,7 @@
         <v>44371</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -46298,7 +46298,7 @@
         <v>45303</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -46355,7 +46355,7 @@
         <v>44916</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -46412,7 +46412,7 @@
         <v>45204</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -46469,7 +46469,7 @@
         <v>45330.55390046296</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -46526,7 +46526,7 @@
         <v>45702.51415509259</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -46588,7 +46588,7 @@
         <v>45537.35211805555</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -46645,7 +46645,7 @@
         <v>45516.43834490741</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -46702,7 +46702,7 @@
         <v>45584.68275462963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -46759,7 +46759,7 @@
         <v>45488</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -46816,7 +46816,7 @@
         <v>45488</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -46873,7 +46873,7 @@
         <v>45175</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -46930,7 +46930,7 @@
         <v>45153.54498842593</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -46987,7 +46987,7 @@
         <v>45048</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -47044,7 +47044,7 @@
         <v>44643.44597222222</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         <v>45572.41975694444</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -47168,7 +47168,7 @@
         <v>44910</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -47225,7 +47225,7 @@
         <v>45709.50980324074</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -47282,7 +47282,7 @@
         <v>45709.51084490741</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -47339,7 +47339,7 @@
         <v>45639.37899305556</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -47396,7 +47396,7 @@
         <v>45639.3862962963</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -47453,7 +47453,7 @@
         <v>44411</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -47515,7 +47515,7 @@
         <v>44742.60590277778</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -47577,7 +47577,7 @@
         <v>45107</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -47634,7 +47634,7 @@
         <v>45034</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -47691,7 +47691,7 @@
         <v>45348.47555555555</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -47748,7 +47748,7 @@
         <v>45310.64228009259</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -47805,7 +47805,7 @@
         <v>44496.61677083333</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -47867,7 +47867,7 @@
         <v>45777</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -47924,7 +47924,7 @@
         <v>45782.48197916667</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -47981,7 +47981,7 @@
         <v>45783.39542824074</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -48038,7 +48038,7 @@
         <v>45783.4247337963</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -48095,7 +48095,7 @@
         <v>45539</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -48152,7 +48152,7 @@
         <v>45785.62479166667</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -48214,7 +48214,7 @@
         <v>45432.55324074074</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -48271,7 +48271,7 @@
         <v>45441.486875</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -48328,7 +48328,7 @@
         <v>45121.50986111111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -48385,7 +48385,7 @@
         <v>45348.49204861111</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -48442,7 +48442,7 @@
         <v>45789.44056712963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -48504,7 +48504,7 @@
         <v>45789.32916666667</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -48566,7 +48566,7 @@
         <v>45789.36928240741</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -48628,7 +48628,7 @@
         <v>45786</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -48685,7 +48685,7 @@
         <v>45223.56440972222</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -48742,7 +48742,7 @@
         <v>45790.42219907408</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -48799,7 +48799,7 @@
         <v>45791.47893518519</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -48861,7 +48861,7 @@
         <v>45792.57824074074</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -48918,7 +48918,7 @@
         <v>45588.37167824074</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -48975,7 +48975,7 @@
         <v>45453.46716435185</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -49032,7 +49032,7 @@
         <v>45799.56943287037</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -49094,7 +49094,7 @@
         <v>45798.616875</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -49151,7 +49151,7 @@
         <v>45800</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -49213,7 +49213,7 @@
         <v>45805.61885416666</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -49270,7 +49270,7 @@
         <v>44865.46136574074</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -49332,7 +49332,7 @@
         <v>45804.49605324074</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -49394,7 +49394,7 @@
         <v>45804.4396412037</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -49451,7 +49451,7 @@
         <v>45810.45271990741</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -49513,7 +49513,7 @@
         <v>45674.62240740741</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -49570,7 +49570,7 @@
         <v>45811.66903935185</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         <v>45812.43825231482</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -49689,7 +49689,7 @@
         <v>45812.47674768518</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -49751,7 +49751,7 @@
         <v>45350.6433912037</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
